--- a/src/main/resources/input-excel-file/test-cases/TC_VETC_OPS_LN_INTF.xlsx
+++ b/src/main/resources/input-excel-file/test-cases/TC_VETC_OPS_LN_INTF.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code ETL frame work\data-etl-reconcilation\src\main\resources\input-excel-file\test-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC81B321-E991-48A2-92F2-AB4EC2113939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00441ECE-0493-4CBA-8EE7-E41FA7DCA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LN_INTF" sheetId="4" r:id="rId1"/>
-    <sheet name="Case U_I_D" sheetId="5" r:id="rId2"/>
+    <sheet name="LN_INTF_INIT" sheetId="4" r:id="rId1"/>
+    <sheet name="LN_INTF_UPDATE" sheetId="5" r:id="rId2"/>
     <sheet name="LEGEND" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Case U_I_D'!$A$1:$U$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LN_INTF!$A$1:$U$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LN_INTF_INIT!$A$1:$U$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LN_INTF_UPDATE!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="264">
   <si>
     <t>Issue Key</t>
   </si>
@@ -1015,9 +1015,6 @@
     <t>LN_INTF_32</t>
   </si>
   <si>
-    <t>CYC_INTF</t>
-  </si>
-  <si>
     <t>LN_ANCHOR_ID</t>
   </si>
   <si>
@@ -1554,78 +1551,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -2287,7 +2213,7 @@
       </c>
       <c r="K2" s="30" t="str">
         <f>"SELECT * FROM "&amp;O2</f>
-        <v>SELECT * FROM CYC_INTF</v>
+        <v>SELECT * FROM LN_INTF</v>
       </c>
       <c r="L2" s="30" t="str">
         <f>"DESCRIBE "&amp;R2&amp;"."&amp;S2</f>
@@ -2300,7 +2226,7 @@
         <v>185</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>258</v>
+        <v>88</v>
       </c>
       <c r="P2" s="30" t="s">
         <v>186</v>
@@ -2392,11 +2318,11 @@
         <v>112</v>
       </c>
       <c r="B4" s="30" t="str">
-        <f t="shared" ref="B4:B12" si="0">"["&amp;S4&amp;"]["&amp;U4&amp;"]  Verify"&amp;F4</f>
+        <f>"["&amp;S4&amp;"]["&amp;U4&amp;"]  Verify"&amp;F4</f>
         <v>[LN_INTF][UNQ_ID_IN_SRC_STM]  VerifyData Values</v>
       </c>
       <c r="C4" s="30" t="str">
-        <f t="shared" ref="C4:C15" si="1">"Verify data values between source data:  "&amp;N4&amp;"."&amp;O4&amp;"."&amp;Q4&amp;" and target data: "&amp;R4&amp;"."&amp;S4&amp;"."&amp;U4&amp;" with transformation logic: DIRECT"</f>
+        <f t="shared" ref="C4:C15" si="0">"Verify data values between source data:  "&amp;N4&amp;"."&amp;O4&amp;"."&amp;Q4&amp;" and target data: "&amp;R4&amp;"."&amp;S4&amp;"."&amp;U4&amp;" with transformation logic: DIRECT"</f>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.TOLL_LANE_ID and target data: INTF.LN_INTF.UNQ_ID_IN_SRC_STM with transformation logic: DIRECT</v>
       </c>
       <c r="D4" s="30"/>
@@ -2459,11 +2385,11 @@
         <v>113</v>
       </c>
       <c r="B5" s="30" t="str">
+        <f t="shared" ref="B4:B12" si="1">"["&amp;S5&amp;"]["&amp;U5&amp;"]  Verify"&amp;F5</f>
+        <v>[LN_INTF][LN_CODE]  VerifyData Values</v>
+      </c>
+      <c r="C5" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][LN_CODE]  VerifyData Values</v>
-      </c>
-      <c r="C5" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.LANE_CODE and target data: INTF.LN_INTF.LN_CODE with transformation logic: DIRECT</v>
       </c>
       <c r="D5" s="30"/>
@@ -2526,11 +2452,11 @@
         <v>114</v>
       </c>
       <c r="B6" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>[LN_INTF][LN_NM]  VerifyData Values</v>
+      </c>
+      <c r="C6" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][LN_NM]  VerifyData Values</v>
-      </c>
-      <c r="C6" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.LANE_NAME and target data: INTF.LN_INTF.LN_NM with transformation logic: DIRECT</v>
       </c>
       <c r="D6" s="30"/>
@@ -2593,11 +2519,11 @@
         <v>115</v>
       </c>
       <c r="B7" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>[LN_INTF][LN_TP]  VerifyData Values</v>
+      </c>
+      <c r="C7" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][LN_TP]  VerifyData Values</v>
-      </c>
-      <c r="C7" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.LANE_TYPE and target data: INTF.LN_INTF.LN_TP with transformation logic: DIRECT</v>
       </c>
       <c r="D7" s="30"/>
@@ -2660,11 +2586,11 @@
         <v>116</v>
       </c>
       <c r="B8" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>[LN_INTF][LN_STT]  VerifyData Values</v>
+      </c>
+      <c r="C8" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][LN_STT]  VerifyData Values</v>
-      </c>
-      <c r="C8" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.STATUS and target data: INTF.LN_INTF.LN_STT with transformation logic: DIRECT</v>
       </c>
       <c r="D8" s="30"/>
@@ -2727,11 +2653,11 @@
         <v>117</v>
       </c>
       <c r="B9" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>[LN_INTF][TOLL_ID]  VerifyData Values</v>
+      </c>
+      <c r="C9" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][TOLL_ID]  VerifyData Values</v>
-      </c>
-      <c r="C9" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.TOLL_ID and target data: INTF.LN_INTF.TOLL_ID with transformation logic: DIRECT</v>
       </c>
       <c r="D9" s="30"/>
@@ -2794,11 +2720,11 @@
         <v>118</v>
       </c>
       <c r="B10" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>[LN_INTF][SRC_STM_CODE]  VerifyData Values</v>
+      </c>
+      <c r="C10" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][SRC_STM_CODE]  VerifyData Values</v>
-      </c>
-      <c r="C10" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.'TOLL_LANE' AS SRC_STM_CODE and target data: INTF.LN_INTF.SRC_STM_CODE with transformation logic: DIRECT</v>
       </c>
       <c r="D10" s="30"/>
@@ -2861,11 +2787,11 @@
         <v>119</v>
       </c>
       <c r="B11" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>[LN_INTF][SRC_STM_NM]  VerifyData Values</v>
+      </c>
+      <c r="C11" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][SRC_STM_NM]  VerifyData Values</v>
-      </c>
-      <c r="C11" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.'TOLL_LANE' AS SRC_STM_NM and target data: INTF.LN_INTF.SRC_STM_NM with transformation logic: DIRECT</v>
       </c>
       <c r="D11" s="30"/>
@@ -2928,11 +2854,11 @@
         <v>120</v>
       </c>
       <c r="B12" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>[LN_INTF][PCS_DT]  VerifyData Values</v>
+      </c>
+      <c r="C12" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>[LN_INTF][PCS_DT]  VerifyData Values</v>
-      </c>
-      <c r="C12" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.TO_CHAR(to_date(CURRENT_DATE),'yyyy-mm-dd') AS PCS_DT and target data: INTF.LN_INTF.PCS_DT with transformation logic: DIRECT</v>
       </c>
       <c r="D12" s="30"/>
@@ -2999,7 +2925,7 @@
         <v>[LN_INTF][PPN_TMS]  VerifyData Values</v>
       </c>
       <c r="C13" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.REGEXP_SUBSTR(((SYSDATE - TO_DATE('1970-01-01', 'yyyy-MM-dd')) * (24 * 60 * 60 * 1000)),'^[0-9,]{4}') AS PPN_TMS_EXTRACT and target data: INTF.LN_INTF.SUBSTR(PPN_TMS,0,4) AS PPN_TMS_EXTRACT with transformation logic: DIRECT</v>
       </c>
       <c r="D13" s="30"/>
@@ -3066,7 +2992,7 @@
         <v>[LN_INTF][CRN_ROW_IND]  VerifyData Values</v>
       </c>
       <c r="C14" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.'1' AS CRN_ROW_IND and target data: INTF.LN_INTF.CRN_ROW_IND with transformation logic: DIRECT</v>
       </c>
       <c r="D14" s="30"/>
@@ -3133,7 +3059,7 @@
         <v>[LN_INTF]EFF_FM_TMS]  VerifyData Values</v>
       </c>
       <c r="C15" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Verify data values between source data:  RATING_OWNER.TOLL_LANE.TO_CHAR(CURRENT_DATE,'YYYY-MM-DD') AS EFF_FM_TMS_EXTRACT and target data: INTF.LN_INTF.SUBSTR(EFF_FM_TMS,0,10) AS EFF_FM_TMS_EXTRACT with transformation logic: DIRECT</v>
       </c>
       <c r="D15" s="30"/>
@@ -3384,7 +3310,7 @@
         <v>75</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="34" customFormat="1" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4084,7 +4010,7 @@
         <v>109</v>
       </c>
       <c r="Q29" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R29" s="30" t="s">
         <v>187</v>
@@ -4168,7 +4094,7 @@
         <v>139</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>105</v>
@@ -4232,7 +4158,7 @@
         <v>140</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>107</v>
@@ -4296,7 +4222,7 @@
         <v>257</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>106</v>
@@ -4324,7 +4250,7 @@
         <v>186</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M33" s="30" t="s">
         <v>240</v>
@@ -4613,7 +4539,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4736,11 +4662,11 @@
         <v>170</v>
       </c>
       <c r="K2" s="30" t="str">
-        <f t="shared" ref="K2:K11" si="0">"SELECT "&amp;P2&amp;", "&amp;Q2&amp;" FROM "&amp;O2&amp;" WHERE "&amp;P2&amp;"= "</f>
+        <f>"SELECT "&amp;P2&amp;", "&amp;Q2&amp;" FROM "&amp;O2&amp;" WHERE "&amp;P2&amp;"= "</f>
         <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_CODE FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
       </c>
       <c r="L2" s="30" t="str">
-        <f t="shared" ref="L2:L11" si="1">"Select UNQ_ID_IN_SRC_STM, "&amp;U2&amp;" From "&amp;S2&amp;" where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'"</f>
+        <f t="shared" ref="L2:L11" si="0">"Select UNQ_ID_IN_SRC_STM, "&amp;U2&amp;" From "&amp;S2&amp;" where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'"</f>
         <v>Select UNQ_ID_IN_SRC_STM, LN_CODE From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M2" s="30" t="s">
@@ -4801,11 +4727,11 @@
         <v>170</v>
       </c>
       <c r="K3" s="30" t="str">
+        <f t="shared" ref="K2:K11" si="1">"SELECT "&amp;P3&amp;", "&amp;Q3&amp;" FROM "&amp;O3&amp;" WHERE "&amp;P3&amp;"= "</f>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_NAME FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L3" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_NAME FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L3" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, LN_NM From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M3" s="30" t="s">
@@ -4866,11 +4792,11 @@
         <v>170</v>
       </c>
       <c r="K4" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_TYPE FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L4" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_TYPE FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L4" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, LN_TP From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M4" s="30" t="s">
@@ -4931,11 +4857,11 @@
         <v>170</v>
       </c>
       <c r="K5" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, STATUS FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L5" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, STATUS FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L5" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, LN_STT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M5" s="30" t="s">
@@ -4996,11 +4922,11 @@
         <v>170</v>
       </c>
       <c r="K6" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, TOLL_ID FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L6" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TOLL_ID FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L6" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, TOLL_ID From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M6" s="30" t="s">
@@ -5061,11 +4987,11 @@
         <v>170</v>
       </c>
       <c r="K7" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(to_date(CURRENT_DATE),'yyyy-mm-dd') AS PCS_DT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L7" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(to_date(CURRENT_DATE),'yyyy-mm-dd') AS PCS_DT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L7" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, PCS_DT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M7" s="30" t="s">
@@ -5126,11 +5052,11 @@
         <v>170</v>
       </c>
       <c r="K8" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, REGEXP_SUBSTR(((SYSDATE - TO_DATE('1970-01-01', 'yyyy-MM-dd')) * (24 * 60 * 60 * 1000)),'^[0-9,]{4}') AS PPN_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L8" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, REGEXP_SUBSTR(((SYSDATE - TO_DATE('1970-01-01', 'yyyy-MM-dd')) * (24 * 60 * 60 * 1000)),'^[0-9,]{4}') AS PPN_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L8" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(PPN_TMS,0,4) AS PPN_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M8" s="30" t="s">
@@ -5191,11 +5117,11 @@
         <v>170</v>
       </c>
       <c r="K9" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, '1' AS CRN_ROW_IND FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L9" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, '1' AS CRN_ROW_IND FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L9" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, CRN_ROW_IND From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M9" s="30" t="s">
@@ -5256,11 +5182,11 @@
         <v>170</v>
       </c>
       <c r="K10" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(CURRENT_DATE,'YYYY-MM-DD') AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L10" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(CURRENT_DATE,'YYYY-MM-DD') AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L10" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(EFF_FM_TMS,0,10) AS EFF_FM_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M10" s="30" t="s">
@@ -5321,11 +5247,11 @@
         <v>170</v>
       </c>
       <c r="K11" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, '2400-01-01' AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+      </c>
+      <c r="L11" s="30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, '2400-01-01' AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L11" s="30" t="str">
-        <f t="shared" si="1"/>
         <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(EFF_TO_TMS,0,10) AS EFF_TO_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M11" s="30" t="s">

--- a/src/main/resources/input-excel-file/test-cases/TC_VETC_OPS_LN_INTF.xlsx
+++ b/src/main/resources/input-excel-file/test-cases/TC_VETC_OPS_LN_INTF.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code ETL frame work\data-etl-reconcilation\src\main\resources\input-excel-file\test-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00441ECE-0493-4CBA-8EE7-E41FA7DCA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D79E0-0A8D-4779-A89B-C016C4AB3762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LN_INTF_INIT" sheetId="4" r:id="rId1"/>
-    <sheet name="LN_INTF_UPDATE" sheetId="5" r:id="rId2"/>
+    <sheet name="LN_INTF_UPDATE_DELETE" sheetId="5" r:id="rId2"/>
     <sheet name="LEGEND" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LN_INTF_INIT!$A$1:$U$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LN_INTF_UPDATE!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LN_INTF_UPDATE_DELETE!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="234">
   <si>
     <t>Issue Key</t>
   </si>
@@ -470,14 +470,6 @@
 3. Compare SQL results between source and target table</t>
   </si>
   <si>
-    <t>Add new data record</t>
-  </si>
-  <si>
-    <t>1. Prepare test data: add new data record
-2. Run Target SQL query
-3. Compare SQL results between source and target table</t>
-  </si>
-  <si>
     <t>Check target schema table and data type columns target</t>
   </si>
   <si>
@@ -510,11 +502,6 @@
   </si>
   <si>
     <t>[LN_INTF] Delete record data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select TOLL_LANE_ID
-FROM TOLL_LANE
-WHERE TOLL_LANE_ID = </t>
   </si>
   <si>
     <t>[LN_INTF] [PCS_DT ] Check value</t>
@@ -676,48 +663,6 @@
     <t>LN_INTF_44</t>
   </si>
   <si>
-    <t>LN_INTF_45</t>
-  </si>
-  <si>
-    <t>LN_INTF_46</t>
-  </si>
-  <si>
-    <t>LN_INTF_47</t>
-  </si>
-  <si>
-    <t>LN_INTF_48</t>
-  </si>
-  <si>
-    <t>LN_INTF_49</t>
-  </si>
-  <si>
-    <t>LN_INTF_50</t>
-  </si>
-  <si>
-    <t>LN_INTF_51</t>
-  </si>
-  <si>
-    <t>LN_INTF_52</t>
-  </si>
-  <si>
-    <t>LN_INTF_53</t>
-  </si>
-  <si>
-    <t>LN_INTF_54</t>
-  </si>
-  <si>
-    <t>LN_INTF_55</t>
-  </si>
-  <si>
-    <t>LN_INTF_56</t>
-  </si>
-  <si>
-    <t>LN_INTF_57</t>
-  </si>
-  <si>
-    <t>LN_INTF_58</t>
-  </si>
-  <si>
     <t>TestId</t>
   </si>
   <si>
@@ -767,12 +712,6 @@
   </si>
   <si>
     <t>TargetColumn</t>
-  </si>
-  <si>
-    <t>Select * From LN_INTF where UNQ_ID_IN_SRC_STM = ''</t>
-  </si>
-  <si>
-    <t>select UNQ_ID_IN_SRC_STM from LN_INTF where UNQ_ID_IN_SRC_STM = ''</t>
   </si>
   <si>
     <t>SQL results between source and target query are same</t>
@@ -854,45 +793,6 @@
   </si>
   <si>
     <t>Update data record, field EFF_TO_TMS</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [UNQ_ID_IN_SRC_STM] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [LN_CODE] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [LN_NM] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [LN_TP] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [LN_STT] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [TOLL_ID] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [SRC_STM_CODE] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [SRC_STM_NM] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [PCS_DT] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [PPN_TMS] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [CRN_ROW_IND] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [EFF_FM_TMS] Add new record data</t>
-  </si>
-  <si>
-    <t>[LN_INTF] [EFF_TO_TMS] Add new record data</t>
   </si>
   <si>
     <t>Verify record counts between source data and target data are same</t>
@@ -1001,9 +901,6 @@
     <t>Exits history record with SCD type 2</t>
   </si>
   <si>
-    <t>LN_INTF_59</t>
-  </si>
-  <si>
     <t>Field SRC_STM_CODE  
 only 1 value is 'TOLL_LANE'</t>
   </si>
@@ -1041,6 +938,15 @@
   </si>
   <si>
     <t>[LN_INTF][CRN_ROW_IND_EFF_TO_TMS] Check Validity</t>
+  </si>
+  <si>
+    <t>Select * From LN_INTF where UNQ_ID_IN_SRC_STM IN (389,398)</t>
+  </si>
+  <si>
+    <t>LN_INTF_33</t>
+  </si>
+  <si>
+    <t>LN_INTF_34</t>
   </si>
 </sst>
 </file>
@@ -2083,11 +1989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686E8C41-B87D-4004-9D97-3E9D6CC4D6E3}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2118,7 +2024,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
@@ -2139,58 +2045,58 @@
         <v>6</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="34" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="30" t="str">
         <f>"["&amp;S2&amp;"] Verify "&amp;F2</f>
         <v>[LN_INTF] Verify Metadata</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
@@ -2206,10 +2112,10 @@
         <v>74</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K2" s="30" t="str">
         <f>"SELECT * FROM "&amp;O2</f>
@@ -2220,43 +2126,43 @@
         <v>DESCRIBE INTF.LN_INTF</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="34" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="30" t="str">
         <f>"["&amp;O3&amp;"]["&amp;S3&amp;"]  Verify"&amp;F3</f>
         <v>[TOLL_LANE][LN_INTF]  VerifyRecord Counts</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30" t="s">
@@ -2272,10 +2178,10 @@
         <v>73</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K3" s="30" t="str">
         <f>"SELECT COUNT(*)  AS NUM_RECORDS FROM " &amp;N3&amp;"."&amp;O3&amp;" WHERE STATUS = 1"</f>
@@ -2286,36 +2192,36 @@
         <v>SELECT COUNT(*) AS NUM_RECORDS FROM INTF.LN_INTF</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="U3" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="34" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="30" t="str">
         <f>"["&amp;S4&amp;"]["&amp;U4&amp;"]  Verify"&amp;F4</f>
@@ -2330,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>48</v>
@@ -2339,10 +2245,10 @@
         <v>73</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K4" s="30" t="str">
         <f>"SELECT "&amp;Q4&amp;" FROM "&amp;N4&amp;"."&amp;O4&amp;" WHERE STATUS = 1 ORDER BY "&amp;Q4</f>
@@ -2353,25 +2259,25 @@
         <v>SELECT UNQ_ID_IN_SRC_STM FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T4" s="30" t="s">
         <v>75</v>
@@ -2382,10 +2288,10 @@
     </row>
     <row r="5" spans="1:21" s="34" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="30" t="str">
-        <f t="shared" ref="B4:B12" si="1">"["&amp;S5&amp;"]["&amp;U5&amp;"]  Verify"&amp;F5</f>
+        <f t="shared" ref="B5:B12" si="1">"["&amp;S5&amp;"]["&amp;U5&amp;"]  Verify"&amp;F5</f>
         <v>[LN_INTF][LN_CODE]  VerifyData Values</v>
       </c>
       <c r="C5" s="30" t="str">
@@ -2397,7 +2303,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>48</v>
@@ -2406,10 +2312,10 @@
         <v>73</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K5" s="30" t="str">
         <f t="shared" ref="K5:K16" si="2">"SELECT "&amp;P5&amp;", "&amp;Q5&amp;" FROM "&amp;N5&amp;"."&amp;O5&amp;" WHERE STATUS = 1 ORDER BY "&amp;P5</f>
@@ -2420,36 +2326,36 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, LN_CODE FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T5" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="34" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" s="30" t="str">
         <f t="shared" si="1"/>
@@ -2464,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>48</v>
@@ -2473,10 +2379,10 @@
         <v>73</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K6" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2487,36 +2393,36 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, LN_NM FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T6" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="34" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="30" t="str">
         <f t="shared" si="1"/>
@@ -2531,7 +2437,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>48</v>
@@ -2540,10 +2446,10 @@
         <v>73</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K7" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2554,36 +2460,36 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, LN_TP FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T7" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U7" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="34" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" s="30" t="str">
         <f t="shared" si="1"/>
@@ -2598,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>48</v>
@@ -2607,10 +2513,10 @@
         <v>73</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K8" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2621,36 +2527,36 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, LN_STT FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T8" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="30" t="str">
         <f t="shared" si="1"/>
@@ -2665,7 +2571,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>48</v>
@@ -2674,10 +2580,10 @@
         <v>73</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K9" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2688,36 +2594,36 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, TOLL_ID FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T9" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U9" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="30" t="str">
         <f t="shared" si="1"/>
@@ -2732,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>48</v>
@@ -2741,10 +2647,10 @@
         <v>73</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K10" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2755,25 +2661,25 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, SRC_STM_CODE FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T10" s="30" t="s">
         <v>75</v>
@@ -2784,7 +2690,7 @@
     </row>
     <row r="11" spans="1:21" s="34" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B11" s="30" t="str">
         <f t="shared" si="1"/>
@@ -2799,7 +2705,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>48</v>
@@ -2808,10 +2714,10 @@
         <v>73</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K11" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2822,25 +2728,25 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, SRC_STM_NM FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T11" s="30" t="s">
         <v>75</v>
@@ -2851,7 +2757,7 @@
     </row>
     <row r="12" spans="1:21" s="34" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B12" s="30" t="str">
         <f t="shared" si="1"/>
@@ -2866,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>48</v>
@@ -2875,10 +2781,10 @@
         <v>73</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K12" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2889,25 +2795,25 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, PCS_DT FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S12" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T12" s="30" t="s">
         <v>75</v>
@@ -2918,7 +2824,7 @@
     </row>
     <row r="13" spans="1:21" s="34" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>"["&amp;S13&amp;"][PPN_TMS]  Verify"&amp;F13</f>
@@ -2933,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>48</v>
@@ -2942,10 +2848,10 @@
         <v>73</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K13" s="30" t="str">
         <f t="shared" si="2"/>
@@ -2956,36 +2862,36 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, SUBSTR(PPN_TMS,0,4) AS PPN_TMS_EXTRACT FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S13" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T13" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="34" customFormat="1" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B14" s="30" t="str">
         <f>"["&amp;S14&amp;"]["&amp;U14&amp;"]  Verify"&amp;F14</f>
@@ -3000,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>48</v>
@@ -3009,10 +2915,10 @@
         <v>73</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K14" s="30" t="str">
         <f t="shared" si="2"/>
@@ -3023,36 +2929,36 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, CRN_ROW_IND FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S14" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T14" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U14" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="34" customFormat="1" ht="118" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B15" s="30" t="str">
         <f>"["&amp;S15&amp;"]EFF_FM_TMS]  Verify"&amp;F15</f>
@@ -3067,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>48</v>
@@ -3076,10 +2982,10 @@
         <v>73</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K15" s="30" t="str">
         <f t="shared" si="2"/>
@@ -3090,50 +2996,50 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, SUBSTR(EFF_FM_TMS,0,10) AS EFF_FM_TMS_EXTRACT FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S15" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T15" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U15" s="30" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="34" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>"["&amp;S16&amp;"][EFF_TO_TMS]  Verify"&amp;F16</f>
         <v>[LN_INTF][EFF_TO_TMS]  VerifyData Values</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>48</v>
@@ -3142,10 +3048,10 @@
         <v>73</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K16" s="30" t="str">
         <f t="shared" si="2"/>
@@ -3156,43 +3062,43 @@
         <v>SELECT UNQ_ID_IN_SRC_STM, SUBSTR(EFF_TO_TMS,0,10) AS EFF_TO_TMS_EXTRACT FROM INTF.LN_INTF ORDER BY UNQ_ID_IN_SRC_STM</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S16" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T16" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U16" s="30" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="34" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ref="B17:B26" si="4">"["&amp;S17&amp;"]["&amp;U17&amp;"]  Verify"&amp;F17</f>
         <v>[LN_INTF][UNQ_ID_IN_SRC_STM]  VerifyUniqueness</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30" t="s">
@@ -3202,44 +3108,44 @@
         <v>33</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L17" s="30" t="str">
         <f>"SELECT "&amp;U17&amp;", count(*) as frequency FROM "&amp;R17&amp;"."&amp;S17&amp;" WHERE "&amp;U17&amp;" is not null or "&amp;U17&amp;" =''"&amp;" or "&amp;U17&amp;" &lt;=0 GROUP BY "&amp;U17&amp;" HAVING count(*)&gt;1"</f>
         <v>SELECT UNQ_ID_IN_SRC_STM, count(*) as frequency FROM INTF.LN_INTF WHERE UNQ_ID_IN_SRC_STM is not null or UNQ_ID_IN_SRC_STM ='' or UNQ_ID_IN_SRC_STM &lt;=0 GROUP BY UNQ_ID_IN_SRC_STM HAVING count(*)&gt;1</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T17" s="30" t="s">
         <v>75</v>
@@ -3250,14 +3156,14 @@
     </row>
     <row r="18" spans="1:21" s="34" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][LN_ANCHOR_ID]  VerifyUniqueness</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30" t="s">
@@ -3267,62 +3173,62 @@
         <v>33</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L18" s="30" t="str">
         <f>"SELECT "&amp;U18&amp;", count(*) as frequency FROM "&amp;R18&amp;"."&amp;S18&amp;" GROUP BY "&amp;U18&amp;" HAVING count(*)&gt;1"</f>
         <v>SELECT LN_ANCHOR_ID, count(*) as frequency FROM INTF.LN_INTF GROUP BY LN_ANCHOR_ID HAVING count(*)&gt;1</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R18" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S18" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="34" customFormat="1" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][UNQ_ID_IN_SRC_STM]  VerifyCompleteness</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30" t="s">
@@ -3332,44 +3238,44 @@
         <v>31</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L19" s="30" t="str">
         <f>"SELECT * FROM "&amp;R19&amp;"."&amp;S19&amp;" WHERE "&amp;U19&amp;" is null or "&amp;U19&amp;" =''"&amp;"  or "&amp;U19&amp;" &lt;=0"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE UNQ_ID_IN_SRC_STM is null or UNQ_ID_IN_SRC_STM =''  or UNQ_ID_IN_SRC_STM &lt;=0</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R19" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S19" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T19" s="30" t="s">
         <v>75</v>
@@ -3380,14 +3286,14 @@
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][PCS_DT]  VerifyCompleteness</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30" t="s">
@@ -3397,44 +3303,44 @@
         <v>31</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L20" s="30" t="str">
         <f>"SELECT * FROM "&amp;R20&amp;"."&amp;S20&amp;" WHERE "&amp;U20&amp;" is null or "&amp;U20&amp;" =''"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE PCS_DT is null or PCS_DT =''</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R20" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T20" s="30" t="s">
         <v>75</v>
@@ -3445,14 +3351,14 @@
     </row>
     <row r="21" spans="1:21" s="34" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][PPN_TMS]  VerifyCompleteness</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30" t="s">
@@ -3462,44 +3368,44 @@
         <v>31</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L21" s="30" t="str">
         <f>"SELECT * FROM "&amp;R21&amp;"."&amp;S21&amp;" WHERE "&amp;U21&amp;" is null or "&amp;U21&amp;" =''"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE PPN_TMS is null or PPN_TMS =''</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R21" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T21" s="30" t="s">
         <v>75</v>
@@ -3510,14 +3416,14 @@
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][SRC_STM_CODE]  VerifyCompleteness</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
@@ -3527,44 +3433,44 @@
         <v>31</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L22" s="30" t="str">
         <f>"SELECT * FROM "&amp;R22&amp;"."&amp;S22&amp;" WHERE "&amp;U22&amp;" is null or "&amp;U22&amp;" =''"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE SRC_STM_CODE is null or SRC_STM_CODE =''</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O22" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S22" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T22" s="30" t="s">
         <v>75</v>
@@ -3575,14 +3481,14 @@
     </row>
     <row r="23" spans="1:21" s="34" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][SRC_STM_NM]  VerifyCompleteness</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30" t="s">
@@ -3592,44 +3498,44 @@
         <v>31</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L23" s="30" t="str">
         <f>"SELECT * FROM "&amp;R23&amp;"."&amp;S23&amp;" WHERE "&amp;U23&amp;" is null or "&amp;U23&amp;" =''"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE SRC_STM_NM is null or SRC_STM_NM =''</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T23" s="30" t="s">
         <v>75</v>
@@ -3640,14 +3546,14 @@
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][CRN_ROW_IND]  VerifyCompleteness</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30" t="s">
@@ -3657,62 +3563,62 @@
         <v>31</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L24" s="30" t="str">
         <f>"SELECT * FROM "&amp;R24&amp;"."&amp;S24&amp;" WHERE "&amp;U24&amp;" is null or "&amp;U24&amp;" =''"&amp;"  or "&amp;U24&amp;" &lt;=0"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE CRN_ROW_IND is null or CRN_ROW_IND =''  or CRN_ROW_IND &lt;=0</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O24" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U24" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="34" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][EFF_FM_TMS]  VerifyCompleteness</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30" t="s">
@@ -3722,62 +3628,62 @@
         <v>31</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L25" s="30" t="str">
         <f>"SELECT * FROM "&amp;R25&amp;"."&amp;S25&amp;" WHERE "&amp;U25&amp;" is null or "&amp;U25&amp;" =''"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE EFF_FM_TMS is null or EFF_FM_TMS =''</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U25" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" si="4"/>
         <v>[LN_INTF][EFF_TO_TMS]  VerifyCompleteness</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30" t="s">
@@ -3787,61 +3693,61 @@
         <v>31</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L26" s="30" t="str">
         <f>"SELECT * FROM "&amp;R26&amp;"."&amp;S26&amp;" WHERE "&amp;U26&amp;" is null or "&amp;U26&amp;" =''"</f>
         <v>SELECT * FROM INTF.LN_INTF WHERE EFF_TO_TMS is null or EFF_TO_TMS =''</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S26" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T26" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="34" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30" t="s">
@@ -3851,44 +3757,44 @@
         <v>35</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L27" s="30" t="str">
         <f xml:space="preserve"> "SELECT "&amp;T27&amp;", "&amp;U27&amp;" FROM "&amp;S27&amp;" WHERE "&amp;U27&amp;" &lt;&gt; '"&amp;Q27&amp;"'"</f>
         <v>SELECT UNQ_ID_IN_SRC_STM, SRC_STM_CODE FROM LN_INTF WHERE SRC_STM_CODE &lt;&gt; 'TOLL_LANE'</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R27" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T27" s="30" t="s">
         <v>75</v>
@@ -3899,13 +3805,13 @@
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30" t="s">
@@ -3915,44 +3821,44 @@
         <v>35</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L28" s="30" t="str">
         <f xml:space="preserve"> "SELECT "&amp;T28&amp;", "&amp;U28&amp;" FROM "&amp;S28&amp;" WHERE "&amp;U28&amp;" &lt;&gt; '"&amp;Q28&amp;"'"</f>
         <v>SELECT UNQ_ID_IN_SRC_STM, SRC_STM_NM FROM LN_INTF WHERE SRC_STM_NM &lt;&gt; 'TOLL_LANE'</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P28" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R28" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S28" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T28" s="30" t="s">
         <v>75</v>
@@ -3963,10 +3869,10 @@
     </row>
     <row r="29" spans="1:21" s="34" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>81</v>
@@ -3979,44 +3885,44 @@
         <v>35</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L29" s="30" t="str">
         <f xml:space="preserve"> "SELECT "&amp;T29&amp;", "&amp;U29&amp;" FROM "&amp;S29&amp;" WHERE "&amp;U29&amp;" &gt; "&amp;Q29</f>
         <v>SELECT UNQ_ID_IN_SRC_STM, PCS_DT FROM LN_INTF WHERE PCS_DT &gt; CURRENT_DATE</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P29" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="30" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="R29" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S29" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T29" s="30" t="s">
         <v>75</v>
@@ -4027,13 +3933,13 @@
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30" t="s">
@@ -4043,61 +3949,61 @@
         <v>35</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L30" s="30" t="str">
         <f xml:space="preserve"> "SELECT "&amp;T30&amp;", "&amp;U30&amp;" FROM "&amp;S30&amp;" WHERE "&amp;U30&amp;" NOT IN (0,1)"</f>
         <v>SELECT UNQ_ID_IN_SRC_STM, CRN_ROW_IND FROM LN_INTF WHERE CRN_ROW_IND NOT IN (0,1)</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P30" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R30" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S30" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T30" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U30" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="34" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30" t="s">
@@ -4107,61 +4013,61 @@
         <v>35</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L31" s="30" t="str">
         <f xml:space="preserve"> "SELECT "&amp;T31&amp;", "&amp;U31&amp;" FROM "&amp;S31&amp;" WHERE EFF_TO_TMS = "&amp;"'2400-01-01 23:59:59"&amp;"' AND CRN_ROW_IND &lt;&gt; 1"</f>
         <v>SELECT UNQ_ID_IN_SRC_STM, EFF_TO_TMS, CRN_ROW_IND FROM LN_INTF WHERE EFF_TO_TMS = '2400-01-01 23:59:59' AND CRN_ROW_IND &lt;&gt; 1</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q31" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S31" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T31" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U31" s="30" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30" t="s">
@@ -4171,61 +4077,61 @@
         <v>35</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L32" s="30" t="str">
         <f xml:space="preserve"> "SELECT "&amp;T31&amp;", "&amp;U31&amp;" FROM "&amp;S31&amp;" WHERE EFF_FM_TMS &gt; EFF_TO_TMS"</f>
         <v>SELECT UNQ_ID_IN_SRC_STM, EFF_TO_TMS, CRN_ROW_IND FROM LN_INTF WHERE EFF_FM_TMS &gt; EFF_TO_TMS</v>
       </c>
       <c r="M32" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N32" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O32" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P32" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q32" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R32" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S32" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T32" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U32" s="30" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="34" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30" t="s">
@@ -4235,49 +4141,49 @@
         <v>35</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>80</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="M33" s="30" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P33" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q33" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R33" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S33" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T33" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4536,16 +4442,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A010BF9-E2AF-4DD6-BA62-529489CADA30}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" customWidth="1"/>
@@ -4567,9 +4473,9 @@
     <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="39" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>1</v>
@@ -4590,430 +4496,430 @@
         <v>6</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K2" s="30" t="str">
-        <f>"SELECT "&amp;P2&amp;", "&amp;Q2&amp;" FROM "&amp;O2&amp;" WHERE "&amp;P2&amp;"= "</f>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_CODE FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+        <f t="shared" ref="K2:K11" si="0">"SELECT "&amp;P2&amp;", "&amp;Q2&amp;" FROM "&amp;O2&amp;" WHERE "&amp;P2&amp;" IN (390,392,393,394,395,396,398,391) "</f>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_CODE FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
       </c>
       <c r="L2" s="30" t="str">
-        <f t="shared" ref="L2:L11" si="0">"Select UNQ_ID_IN_SRC_STM, "&amp;U2&amp;" From "&amp;S2&amp;" where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'"</f>
-        <v>Select UNQ_ID_IN_SRC_STM, LN_CODE From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <f t="shared" ref="L2:L11" si="1">"Select UNQ_ID_IN_SRC_STM, "&amp;U2&amp;" From "&amp;S2&amp;" where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'"</f>
+        <v>Select UNQ_ID_IN_SRC_STM, LN_CODE From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T2" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K3" s="30" t="str">
-        <f t="shared" ref="K2:K11" si="1">"SELECT "&amp;P3&amp;", "&amp;Q3&amp;" FROM "&amp;O3&amp;" WHERE "&amp;P3&amp;"= "</f>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_NAME FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_NAME FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
       </c>
       <c r="L3" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, LN_NM From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <f t="shared" si="1"/>
+        <v>Select UNQ_ID_IN_SRC_STM, LN_NM From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T3" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U3" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K4" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_TYPE FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L4" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_TYPE FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L4" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, LN_TP From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, LN_TP From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T4" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U4" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, STATUS FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L5" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, STATUS FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L5" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, LN_STT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, LN_STT From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T5" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K6" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, TOLL_ID FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L6" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TOLL_ID FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L6" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, TOLL_ID From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, TOLL_ID From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T6" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K7" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(to_date(CURRENT_DATE),'yyyy-mm-dd') AS PCS_DT FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L7" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(to_date(CURRENT_DATE),'yyyy-mm-dd') AS PCS_DT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L7" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, PCS_DT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, PCS_DT From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T7" s="30" t="s">
         <v>75</v>
@@ -5022,336 +4928,336 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, REGEXP_SUBSTR(((SYSDATE - TO_DATE('1970-01-01', 'yyyy-MM-dd')) * (24 * 60 * 60 * 1000)),'^[0-9,]{4}') AS PPN_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L8" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, REGEXP_SUBSTR(((SYSDATE - TO_DATE('1970-01-01', 'yyyy-MM-dd')) * (24 * 60 * 60 * 1000)),'^[0-9,]{4}') AS PPN_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(PPN_TMS,0,4) AS PPN_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(PPN_TMS,0,4) AS PPN_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T8" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K9" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, '1' AS CRN_ROW_IND FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L9" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, '1' AS CRN_ROW_IND FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L9" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, CRN_ROW_IND From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, CRN_ROW_IND From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T9" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U9" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="34" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K10" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(CURRENT_DATE,'YYYY-MM-DD') AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L10" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(CURRENT_DATE,'YYYY-MM-DD') AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L10" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(EFF_FM_TMS,0,10) AS EFF_FM_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(EFF_FM_TMS,0,10) AS EFF_FM_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T10" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U10" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="34" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K11" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SELECT TOLL_LANE_ID, '2400-01-01' AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID IN (390,392,393,394,395,396,398,391) </v>
+      </c>
+      <c r="L11" s="30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, '2400-01-01' AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID= </v>
-      </c>
-      <c r="L11" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(EFF_TO_TMS,0,10) AS EFF_TO_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms = '2400-01-01 23:59:59'</v>
+        <v>Select UNQ_ID_IN_SRC_STM, SUBSTR(EFF_TO_TMS,0,10) AS EFF_TO_TMS_EXTRACT From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,392,393,394,395,396,398,391) AND eff_to_tms = '2400-01-01 23:59:59'</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T11" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L12" s="30" t="str">
-        <f>"Select UNQ_ID_IN_SRC_STM, "&amp;U12&amp;" From "&amp;S12&amp;" where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms &lt;&gt; '2400-01-01 23:59:59'"</f>
-        <v>Select UNQ_ID_IN_SRC_STM, N/A From LN_INTF where UNQ_ID_IN_SRC_STM = '' AND eff_to_tms &lt;&gt; '2400-01-01 23:59:59'</v>
+        <f>"Select * From "&amp;S12&amp;" where UNQ_ID_IN_SRC_STM IN (390,395,396,391) AND eff_to_tms &lt;&gt; '2400-01-01 23:59:59'"</f>
+        <v>Select * From LN_INTF where UNQ_ID_IN_SRC_STM IN (390,395,396,391) AND eff_to_tms &lt;&gt; '2400-01-01 23:59:59'</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S12" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T12" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U12" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>82</v>
@@ -5361,900 +5267,58 @@
         <v>14</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="M13" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>89</v>
-      </c>
       <c r="P13" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S13" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T13" s="30" t="s">
         <v>75</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="R14" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="30" t="str">
-        <f t="shared" ref="K15:K26" si="2">"SELECT "&amp;P15&amp;", "&amp;Q15&amp;" FROM "&amp;O15&amp;" WHERE "&amp;P15&amp;" = "</f>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_CODE FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L15" s="30" t="str">
-        <f t="shared" ref="L15:L26" si="3">"SELECT "&amp;T15&amp;", "&amp;U15&amp;" FROM "&amp;S15&amp;" WHERE "&amp;T15&amp;" = "</f>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, LN_CODE FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="R15" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_NAME FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L16" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, LN_NM FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T16" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, LANE_TYPE FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L17" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, LN_TP FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q17" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U17" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, STATUS FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L18" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, LN_STT FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="R18" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S18" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T18" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TOLL_ID FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L19" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, TOLL_ID FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S19" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T19" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, 'TOLL_LANE' AS SRC_STM_CODE FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L20" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, SRC_STM_CODE FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="R20" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S20" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T20" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U20" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, 'TOLL_LANE' AS SRC_STM_NM FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L21" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, SRC_STM_NM FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="R21" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S21" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T21" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="34" customFormat="1" ht="98" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K22" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(to_date(CURRENT_DATE),'yyyy-mm-dd') AS PCS_DT FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L22" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, PCS_DT FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="R22" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T22" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U22" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="34" customFormat="1" ht="168" x14ac:dyDescent="0.35">
-      <c r="A23" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, REGEXP_SUBSTR(((SYSDATE - TO_DATE('1970-01-01', 'yyyy-MM-dd')) * (24 * 60 * 60 * 1000)),'^[0-9,]{4}') AS PPN_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L23" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, SUBSTR(PPN_TMS,0,4) AS PPN_TMS_EXTRACT FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q23" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="R23" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S23" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T23" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="34" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K24" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, '1' AS CRN_ROW_IND FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L24" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, CRN_ROW_IND FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.35">
-      <c r="A25" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, TO_CHAR(CURRENT_DATE,'YYYY-MM-DD') AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L25" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, SUBSTR(EFF_FM_TMS,0,10) AS EFF_FM_TMS_EXTRACT FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="R25" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S25" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T25" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="34" customFormat="1" ht="112" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">SELECT TOLL_LANE_ID, '2400-01-01' AS EFF_FM_TMS_EXTRACT FROM TOLL_LANE WHERE TOLL_LANE_ID = </v>
-      </c>
-      <c r="L26" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">SELECT UNQ_ID_IN_SRC_STM, SUBSTR(EFF_TO_TMS,0,10) AS EFF_TO_TMS_EXTRACT FROM LN_INTF WHERE UNQ_ID_IN_SRC_STM = </v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="R26" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="S26" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T26" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="U26" s="30" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{3A010BF9-E2AF-4DD6-BA62-529489CADA30}"/>
-  <conditionalFormatting sqref="E2:E26">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E13">
     <cfRule type="cellIs" priority="27" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -6290,7 +5354,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E2:E26</xm:sqref>
+          <xm:sqref>E2:E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="24" operator="equal" id="{CCEC36CD-A38F-4F1F-9352-4EE1EE57D4E2}">
@@ -6306,7 +5370,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E2:E26</xm:sqref>
+          <xm:sqref>E2:E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{ADAEB8A5-C2B3-4ABA-9F67-8FD8BF6F194B}">
@@ -6365,7 +5429,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G2:G26</xm:sqref>
+          <xm:sqref>G2:G13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6375,19 +5439,19 @@
           <x14:formula1>
             <xm:f>LEGEND!$A$16:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G26</xm:sqref>
+          <xm:sqref>G2:G13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F258CDC4-9847-4B22-8B32-E22D3C96DA2B}">
           <x14:formula1>
             <xm:f>LEGEND!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E26</xm:sqref>
+          <xm:sqref>E2:E13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9178A20E-6486-4637-9187-B29EAF9F3F28}">
           <x14:formula1>
             <xm:f>LEGEND!$A$22:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F26</xm:sqref>
+          <xm:sqref>F2:F13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6400,7 +5464,7 @@
   <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6897,7 +5961,7 @@
     </row>
     <row r="17" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -7087,7 +6151,7 @@
     </row>
     <row r="23" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>30</v>
@@ -7127,7 +6191,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7161,7 +6225,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7195,7 +6259,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -7229,7 +6293,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
